--- a/实施周数据-张磊组/10月/44周/实施周数据-张磊组-王骞.xlsx
+++ b/实施周数据-张磊组/10月/44周/实施周数据-张磊组-王骞.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="240" windowWidth="20730" windowHeight="9090"/>
+    <workbookView xWindow="0" yWindow="240" windowWidth="20730" windowHeight="9090" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="5" r:id="rId1"/>
@@ -2841,7 +2841,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+    <sheetView topLeftCell="A88" workbookViewId="0">
       <selection activeCell="C113" sqref="C113"/>
     </sheetView>
   </sheetViews>
@@ -7112,6 +7112,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B93:B101"/>
+    <mergeCell ref="A48:A56"/>
+    <mergeCell ref="B48:B56"/>
+    <mergeCell ref="A66:A74"/>
+    <mergeCell ref="B66:B74"/>
+    <mergeCell ref="A75:A83"/>
+    <mergeCell ref="B75:B83"/>
+    <mergeCell ref="A57:A65"/>
+    <mergeCell ref="B57:B65"/>
     <mergeCell ref="B102:B110"/>
     <mergeCell ref="A102:A110"/>
     <mergeCell ref="A1:Q1"/>
@@ -7128,15 +7137,6 @@
     <mergeCell ref="A84:A92"/>
     <mergeCell ref="B84:B92"/>
     <mergeCell ref="A93:A101"/>
-    <mergeCell ref="B93:B101"/>
-    <mergeCell ref="A48:A56"/>
-    <mergeCell ref="B48:B56"/>
-    <mergeCell ref="A66:A74"/>
-    <mergeCell ref="B66:B74"/>
-    <mergeCell ref="A75:A83"/>
-    <mergeCell ref="B75:B83"/>
-    <mergeCell ref="A57:A65"/>
-    <mergeCell ref="B57:B65"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -7147,8 +7147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N605"/>
   <sheetViews>
-    <sheetView topLeftCell="A217" workbookViewId="0">
-      <selection activeCell="D242" sqref="D242"/>
+    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="K213" sqref="K213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7158,7 +7158,7 @@
     <col min="4" max="5" width="9" style="4"/>
     <col min="6" max="6" width="13.875" style="4" customWidth="1"/>
     <col min="7" max="7" width="9.5" style="4" customWidth="1"/>
-    <col min="8" max="8" width="15.875" style="57" customWidth="1"/>
+    <col min="8" max="8" width="23.75" style="57" customWidth="1"/>
     <col min="9" max="9" width="9.125" style="4" customWidth="1"/>
     <col min="10" max="10" width="12.875" style="4" customWidth="1"/>
     <col min="11" max="11" width="16.625" style="4" customWidth="1"/>
@@ -15772,7 +15772,7 @@
         <v>430</v>
       </c>
       <c r="G205" s="4">
-        <v>76099239</v>
+        <v>76098169</v>
       </c>
       <c r="H205" s="57" t="s">
         <v>429</v>

--- a/实施周数据-张磊组/10月/44周/实施周数据-张磊组-王骞.xlsx
+++ b/实施周数据-张磊组/10月/44周/实施周数据-张磊组-王骞.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="240" windowWidth="20730" windowHeight="9090" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="270" windowWidth="20730" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="5" r:id="rId1"/>
@@ -12,14 +12,14 @@
     <sheet name="加班明细表" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">上线明细!$A$1:$O$605</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">上线明细!$A$1:$O$606</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2307" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2641" uniqueCount="560">
   <si>
     <t>上海实施数据周报</t>
   </si>
@@ -1885,8 +1885,269 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>(沪上阿姨)镇江大港店</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>镇江</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>(沪上阿姨)天津水游城店</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津</t>
+  </si>
+  <si>
+    <t>天津</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>(沪上阿姨)扬州宝应中央商城店</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>扬州</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>(沪上阿姨)合肥天珑广场店</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>合肥</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>(沪上阿姨)黄山黎阳in巷店</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄山</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>(沪上阿姨)大连高新万达店</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>大连</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>(沪上阿姨)镇江丹阳界牌新村店</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>(沪上阿姨)合肥庐江育才花园店</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>合肥</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>(沪上阿姨)阜阳界首东城大润发店</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>阜阳</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>(沪上阿姨)天津建设路店</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>(沪上阿姨)盐城阜宁新盛街店</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>盐城</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>(沪上阿姨)扬州高邮店</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>扬州</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>(沪上阿姨)天津侯台花园店</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>(沪上阿姨)滁州南谯北路店</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>滁州</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>(沪上阿姨)黄冈武穴栖贤路店</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄冈</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>(沪上阿姨)滁州金鹏99广场店</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>(沪上阿姨)商丘柘城中原大街店</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>商丘</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>(沪上阿姨)济南章丘大润发店</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>济南</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>恣意(上海)品牌管理有限公司</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>来点茶</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>来点茶(中信泰富店)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>(沪上阿姨)滁州香港城店</t>
+  </si>
+  <si>
+    <t>(沪上阿姨)宿州市府巷店</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>宿州</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>(沪上阿姨)海口海大南门店</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>海口</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>(沪上阿姨)临沂沂水新华街店</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>临沂</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>(沪上阿姨)宿迁京东商业街店</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>宿迁</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>(沪上阿姨)徐州沛县福泰隆店</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐州</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>(沪上阿姨)苏州太仓浮桥店</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏州</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>(沪上阿姨)天津十一经路华润店</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>(沪上阿姨)六安西都世纪联华店</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>六安</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>(沪上阿姨)六安梅山路沃尔玛店</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>(沪上阿姨)滁州天长东路店</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>(沪上阿姨)武汉永旺梦乐城店</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>(沪上阿姨)常州溧阳上黄店</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>常州</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>(沪上阿姨)鄂州南浦路店</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄂州</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>(沪上阿姨)滁州全椒新华路店</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>(沪上阿姨)天津图书大厦店</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>(沪上阿姨)滁州天长天发广场店</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>43周</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>44周</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2839,10 +3100,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q110"/>
+  <dimension ref="A1:Q119"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="C113" sqref="C113"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="I124" sqref="I124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5"/>
@@ -6763,7 +7024,7 @@
     <row r="102" spans="1:14">
       <c r="A102" s="62"/>
       <c r="B102" s="59" t="s">
-        <v>493</v>
+        <v>558</v>
       </c>
       <c r="C102" s="17" t="s">
         <v>15</v>
@@ -6852,7 +7113,7 @@
       <c r="D104" s="22"/>
       <c r="E104" s="23"/>
       <c r="F104" s="23">
-        <f t="shared" ref="F104:F110" si="107">D104-E104</f>
+        <f t="shared" ref="F104:F111" si="107">D104-E104</f>
         <v>0</v>
       </c>
       <c r="G104" s="24"/>
@@ -7110,17 +7371,358 @@
         <v>1</v>
       </c>
     </row>
+    <row r="111" spans="1:14">
+      <c r="A111" s="62"/>
+      <c r="B111" s="59" t="s">
+        <v>559</v>
+      </c>
+      <c r="C111" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D111" s="18"/>
+      <c r="E111" s="19"/>
+      <c r="F111" s="19">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="G111" s="20"/>
+      <c r="H111" s="20"/>
+      <c r="I111" s="20">
+        <f t="shared" ref="I111:I119" si="112">G111-H111</f>
+        <v>0</v>
+      </c>
+      <c r="J111" s="41"/>
+      <c r="K111" s="42" t="e">
+        <f t="shared" ref="K111:K119" si="113">J111/M111*100%</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L111" s="43">
+        <f t="shared" ref="L111:L118" si="114">D111+H111</f>
+        <v>0</v>
+      </c>
+      <c r="M111" s="44">
+        <f t="shared" ref="M111" si="115">E111+H111</f>
+        <v>0</v>
+      </c>
+      <c r="N111" s="45" t="e">
+        <f t="shared" ref="N111:N119" si="116">M111/L111*100%</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14">
+      <c r="A112" s="63"/>
+      <c r="B112" s="60"/>
+      <c r="C112" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D112" s="22"/>
+      <c r="E112" s="23">
+        <v>1</v>
+      </c>
+      <c r="F112" s="23">
+        <v>0</v>
+      </c>
+      <c r="G112" s="24">
+        <v>132</v>
+      </c>
+      <c r="H112" s="20">
+        <v>35</v>
+      </c>
+      <c r="I112" s="20">
+        <f>G112-H112</f>
+        <v>97</v>
+      </c>
+      <c r="J112" s="46">
+        <v>35</v>
+      </c>
+      <c r="K112" s="42">
+        <f t="shared" si="113"/>
+        <v>0.97222222222222221</v>
+      </c>
+      <c r="L112" s="43">
+        <f t="shared" si="114"/>
+        <v>35</v>
+      </c>
+      <c r="M112" s="44">
+        <f t="shared" ref="M112:M118" si="117">E112+J112</f>
+        <v>36</v>
+      </c>
+      <c r="N112" s="45">
+        <f t="shared" si="116"/>
+        <v>1.0285714285714285</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14">
+      <c r="A113" s="63"/>
+      <c r="B113" s="60"/>
+      <c r="C113" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D113" s="22"/>
+      <c r="E113" s="23"/>
+      <c r="F113" s="23">
+        <f t="shared" ref="F113:F119" si="118">D113-E113</f>
+        <v>0</v>
+      </c>
+      <c r="G113" s="24"/>
+      <c r="H113" s="20"/>
+      <c r="I113" s="24">
+        <f t="shared" ref="I113:I119" si="119">G113-H113</f>
+        <v>0</v>
+      </c>
+      <c r="J113" s="46"/>
+      <c r="K113" s="42" t="e">
+        <f t="shared" si="113"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L113" s="43">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="M113" s="44">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="N113" s="45" t="e">
+        <f t="shared" si="116"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14">
+      <c r="A114" s="63"/>
+      <c r="B114" s="60"/>
+      <c r="C114" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D114" s="22"/>
+      <c r="E114" s="23"/>
+      <c r="F114" s="23">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="G114" s="24"/>
+      <c r="H114" s="20"/>
+      <c r="I114" s="24">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="J114" s="46"/>
+      <c r="K114" s="42" t="e">
+        <f t="shared" si="113"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L114" s="43">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="M114" s="44">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="N114" s="45" t="e">
+        <f t="shared" si="116"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14">
+      <c r="A115" s="63"/>
+      <c r="B115" s="60"/>
+      <c r="C115" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D115" s="22"/>
+      <c r="E115" s="23"/>
+      <c r="F115" s="23">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="G115" s="24"/>
+      <c r="H115" s="20"/>
+      <c r="I115" s="24">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="J115" s="46"/>
+      <c r="K115" s="42" t="e">
+        <f t="shared" si="113"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L115" s="43">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="M115" s="44">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="N115" s="45" t="e">
+        <f t="shared" si="116"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14">
+      <c r="A116" s="63"/>
+      <c r="B116" s="60"/>
+      <c r="C116" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D116" s="22"/>
+      <c r="E116" s="23"/>
+      <c r="F116" s="23">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="G116" s="24"/>
+      <c r="H116" s="20"/>
+      <c r="I116" s="24">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="J116" s="46"/>
+      <c r="K116" s="42" t="e">
+        <f t="shared" si="113"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L116" s="43">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="M116" s="44">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="N116" s="45" t="e">
+        <f t="shared" si="116"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14">
+      <c r="A117" s="63"/>
+      <c r="B117" s="60"/>
+      <c r="C117" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D117" s="22"/>
+      <c r="E117" s="23"/>
+      <c r="F117" s="23">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="G117" s="24"/>
+      <c r="H117" s="20"/>
+      <c r="I117" s="24">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="J117" s="46"/>
+      <c r="K117" s="42" t="e">
+        <f t="shared" si="113"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L117" s="43">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="M117" s="44">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="N117" s="45" t="e">
+        <f t="shared" si="116"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" ht="14.25" thickBot="1">
+      <c r="A118" s="63"/>
+      <c r="B118" s="60"/>
+      <c r="C118" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D118" s="26"/>
+      <c r="E118" s="27"/>
+      <c r="F118" s="28">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="G118" s="29"/>
+      <c r="H118" s="30"/>
+      <c r="I118" s="29">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="J118" s="47"/>
+      <c r="K118" s="48" t="e">
+        <f t="shared" si="113"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L118" s="49">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="M118" s="50">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="N118" s="51" t="e">
+        <f t="shared" si="116"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" ht="14.25" thickBot="1">
+      <c r="A119" s="64"/>
+      <c r="B119" s="61"/>
+      <c r="C119" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D119" s="32">
+        <f t="shared" ref="D119:E119" si="120">SUM(D111:D118)</f>
+        <v>0</v>
+      </c>
+      <c r="E119" s="32">
+        <f t="shared" si="120"/>
+        <v>1</v>
+      </c>
+      <c r="F119" s="33">
+        <f t="shared" si="118"/>
+        <v>-1</v>
+      </c>
+      <c r="G119" s="32">
+        <f t="shared" ref="G119:H119" si="121">SUM(G111:G118)</f>
+        <v>132</v>
+      </c>
+      <c r="H119" s="32">
+        <f t="shared" si="121"/>
+        <v>35</v>
+      </c>
+      <c r="I119" s="33">
+        <f t="shared" si="119"/>
+        <v>97</v>
+      </c>
+      <c r="J119" s="32">
+        <f t="shared" ref="J119" si="122">SUM(J111:J118)</f>
+        <v>35</v>
+      </c>
+      <c r="K119" s="52">
+        <f t="shared" si="113"/>
+        <v>0.97222222222222221</v>
+      </c>
+      <c r="L119" s="33">
+        <f t="shared" ref="L119:M119" si="123">SUM(L111:L118)</f>
+        <v>35</v>
+      </c>
+      <c r="M119" s="33">
+        <f t="shared" si="123"/>
+        <v>36</v>
+      </c>
+      <c r="N119" s="53">
+        <f t="shared" si="116"/>
+        <v>1.0285714285714285</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="B93:B101"/>
-    <mergeCell ref="A48:A56"/>
-    <mergeCell ref="B48:B56"/>
-    <mergeCell ref="A66:A74"/>
-    <mergeCell ref="B66:B74"/>
-    <mergeCell ref="A75:A83"/>
-    <mergeCell ref="B75:B83"/>
-    <mergeCell ref="A57:A65"/>
-    <mergeCell ref="B57:B65"/>
+  <mergeCells count="27">
+    <mergeCell ref="A111:A119"/>
+    <mergeCell ref="B111:B119"/>
     <mergeCell ref="B102:B110"/>
     <mergeCell ref="A102:A110"/>
     <mergeCell ref="A1:Q1"/>
@@ -7137,6 +7739,15 @@
     <mergeCell ref="A84:A92"/>
     <mergeCell ref="B84:B92"/>
     <mergeCell ref="A93:A101"/>
+    <mergeCell ref="B93:B101"/>
+    <mergeCell ref="A48:A56"/>
+    <mergeCell ref="B48:B56"/>
+    <mergeCell ref="A66:A74"/>
+    <mergeCell ref="B66:B74"/>
+    <mergeCell ref="A75:A83"/>
+    <mergeCell ref="B75:B83"/>
+    <mergeCell ref="A57:A65"/>
+    <mergeCell ref="B57:B65"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -7145,10 +7756,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N605"/>
+  <dimension ref="A1:N606"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="K213" sqref="K213"/>
+    <sheetView topLeftCell="A259" workbookViewId="0">
+      <selection activeCell="B241" sqref="B241:B275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -16470,7 +17081,7 @@
     </row>
     <row r="222" spans="1:14">
       <c r="A222" s="71">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B222" s="55">
         <v>43028</v>
@@ -17227,150 +17838,1556 @@
       </c>
     </row>
     <row r="240" spans="1:14">
-      <c r="A240" s="8"/>
-    </row>
-    <row r="241" spans="1:1">
-      <c r="A241" s="8"/>
-    </row>
-    <row r="242" spans="1:1">
-      <c r="A242" s="8"/>
-    </row>
-    <row r="243" spans="1:1">
-      <c r="A243" s="8"/>
-    </row>
-    <row r="244" spans="1:1">
-      <c r="A244" s="8"/>
-    </row>
-    <row r="245" spans="1:1">
-      <c r="A245" s="8"/>
-    </row>
-    <row r="246" spans="1:1">
-      <c r="A246" s="8"/>
-    </row>
-    <row r="247" spans="1:1">
-      <c r="A247" s="8"/>
-    </row>
-    <row r="248" spans="1:1">
-      <c r="A248" s="8"/>
-    </row>
-    <row r="249" spans="1:1">
-      <c r="A249" s="8"/>
-    </row>
-    <row r="250" spans="1:1">
-      <c r="A250" s="8"/>
-    </row>
-    <row r="251" spans="1:1">
-      <c r="A251" s="8"/>
-    </row>
-    <row r="252" spans="1:1">
-      <c r="A252" s="8"/>
-    </row>
-    <row r="253" spans="1:1">
-      <c r="A253" s="8"/>
-    </row>
-    <row r="254" spans="1:1">
-      <c r="A254" s="8"/>
-    </row>
-    <row r="255" spans="1:1">
-      <c r="A255" s="8"/>
-    </row>
-    <row r="256" spans="1:1">
-      <c r="A256" s="8"/>
-    </row>
-    <row r="257" spans="1:1">
-      <c r="A257" s="8"/>
-    </row>
-    <row r="258" spans="1:1">
-      <c r="A258" s="8"/>
-    </row>
-    <row r="259" spans="1:1">
-      <c r="A259" s="8"/>
-    </row>
-    <row r="260" spans="1:1">
-      <c r="A260" s="8"/>
-    </row>
-    <row r="261" spans="1:1">
-      <c r="A261" s="8"/>
-    </row>
-    <row r="262" spans="1:1">
-      <c r="A262" s="8"/>
-    </row>
-    <row r="263" spans="1:1">
-      <c r="A263" s="8"/>
-    </row>
-    <row r="264" spans="1:1">
-      <c r="A264" s="8"/>
-    </row>
-    <row r="265" spans="1:1">
-      <c r="A265" s="8"/>
-    </row>
-    <row r="266" spans="1:1">
-      <c r="A266" s="8"/>
-    </row>
-    <row r="267" spans="1:1">
-      <c r="A267" s="8"/>
-    </row>
-    <row r="268" spans="1:1">
-      <c r="A268" s="8"/>
-    </row>
-    <row r="269" spans="1:1">
-      <c r="A269" s="8"/>
-    </row>
-    <row r="270" spans="1:1">
-      <c r="A270" s="8"/>
-    </row>
-    <row r="271" spans="1:1">
-      <c r="A271" s="8"/>
-    </row>
-    <row r="272" spans="1:1">
-      <c r="A272" s="8"/>
-    </row>
-    <row r="273" spans="1:1">
-      <c r="A273" s="8"/>
-    </row>
-    <row r="274" spans="1:1">
-      <c r="A274" s="8"/>
-    </row>
-    <row r="275" spans="1:1">
-      <c r="A275" s="8"/>
-    </row>
-    <row r="276" spans="1:1">
+      <c r="A240" s="71">
+        <v>44</v>
+      </c>
+      <c r="B240" s="55">
+        <v>43035</v>
+      </c>
+      <c r="C240" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D240" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="E240" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="F240" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="G240" s="4">
+        <v>76097165</v>
+      </c>
+      <c r="H240" s="57" t="s">
+        <v>529</v>
+      </c>
+      <c r="I240" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J240" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K240" s="4">
+        <v>15021719313</v>
+      </c>
+      <c r="L240" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M240" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N240" s="4">
+        <v>13651627990</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14">
+      <c r="A241" s="72"/>
+      <c r="B241" s="55">
+        <v>43035</v>
+      </c>
+      <c r="C241" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D241" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E241" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F241" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="G241" s="4">
+        <v>76089037</v>
+      </c>
+      <c r="H241" s="57" t="s">
+        <v>493</v>
+      </c>
+      <c r="I241" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J241" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K241" s="4">
+        <v>15021719313</v>
+      </c>
+      <c r="L241" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M241" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N241" s="4">
+        <v>18652860602</v>
+      </c>
+    </row>
+    <row r="242" spans="1:14">
+      <c r="A242" s="72"/>
+      <c r="B242" s="55">
+        <v>43035</v>
+      </c>
+      <c r="C242" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D242" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E242" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F242" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="G242" s="4">
+        <v>76101988</v>
+      </c>
+      <c r="H242" s="57" t="s">
+        <v>495</v>
+      </c>
+      <c r="I242" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J242" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K242" s="4">
+        <v>15021719313</v>
+      </c>
+      <c r="L242" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M242" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N242" s="4">
+        <v>13920414669</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14">
+      <c r="A243" s="72"/>
+      <c r="B243" s="55">
+        <v>43035</v>
+      </c>
+      <c r="C243" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D243" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E243" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F243" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="G243" s="4">
+        <v>76102073</v>
+      </c>
+      <c r="H243" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="I243" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J243" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K243" s="4">
+        <v>15021719313</v>
+      </c>
+      <c r="L243" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M243" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N243" s="4">
+        <v>18951050418</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14">
+      <c r="A244" s="72"/>
+      <c r="B244" s="55">
+        <v>43035</v>
+      </c>
+      <c r="C244" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D244" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E244" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F244" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="G244" s="4">
+        <v>76102087</v>
+      </c>
+      <c r="H244" s="57" t="s">
+        <v>500</v>
+      </c>
+      <c r="I244" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J244" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K244" s="4">
+        <v>15021719313</v>
+      </c>
+      <c r="L244" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M244" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N244" s="4">
+        <v>18605518906</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14">
+      <c r="A245" s="72"/>
+      <c r="B245" s="55">
+        <v>43035</v>
+      </c>
+      <c r="C245" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D245" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E245" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F245" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="G245" s="4">
+        <v>76102088</v>
+      </c>
+      <c r="H245" s="57" t="s">
+        <v>502</v>
+      </c>
+      <c r="I245" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J245" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K245" s="4">
+        <v>15021719313</v>
+      </c>
+      <c r="L245" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M245" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N245" s="4">
+        <v>18705597717</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14">
+      <c r="A246" s="72"/>
+      <c r="B246" s="55">
+        <v>43035</v>
+      </c>
+      <c r="C246" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D246" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E246" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F246" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="G246" s="4">
+        <v>76102315</v>
+      </c>
+      <c r="H246" s="57" t="s">
+        <v>504</v>
+      </c>
+      <c r="I246" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J246" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K246" s="4">
+        <v>15021719313</v>
+      </c>
+      <c r="L246" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M246" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N246" s="4">
+        <v>15940868656</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14">
+      <c r="A247" s="72"/>
+      <c r="B247" s="55">
+        <v>43035</v>
+      </c>
+      <c r="C247" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D247" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E247" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F247" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="G247" s="4">
+        <v>76102317</v>
+      </c>
+      <c r="H247" s="57" t="s">
+        <v>506</v>
+      </c>
+      <c r="I247" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J247" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K247" s="4">
+        <v>15021719313</v>
+      </c>
+      <c r="L247" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M247" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N247" s="4">
+        <v>13862465483</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14">
+      <c r="A248" s="72"/>
+      <c r="B248" s="55">
+        <v>43035</v>
+      </c>
+      <c r="C248" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D248" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E248" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F248" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="G248" s="4">
+        <v>76102615</v>
+      </c>
+      <c r="H248" s="57" t="s">
+        <v>507</v>
+      </c>
+      <c r="I248" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J248" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K248" s="4">
+        <v>15021719313</v>
+      </c>
+      <c r="L248" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M248" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N248" s="4">
+        <v>15156507166</v>
+      </c>
+    </row>
+    <row r="249" spans="1:14">
+      <c r="A249" s="72"/>
+      <c r="B249" s="55">
+        <v>43035</v>
+      </c>
+      <c r="C249" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D249" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E249" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F249" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="G249" s="4">
+        <v>76102625</v>
+      </c>
+      <c r="H249" s="57" t="s">
+        <v>509</v>
+      </c>
+      <c r="I249" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J249" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K249" s="4">
+        <v>15021719313</v>
+      </c>
+      <c r="L249" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M249" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N249" s="4">
+        <v>18355806662</v>
+      </c>
+    </row>
+    <row r="250" spans="1:14">
+      <c r="A250" s="72"/>
+      <c r="B250" s="55">
+        <v>43035</v>
+      </c>
+      <c r="C250" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D250" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E250" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F250" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="G250" s="4">
+        <v>76102673</v>
+      </c>
+      <c r="H250" s="57" t="s">
+        <v>511</v>
+      </c>
+      <c r="I250" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J250" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K250" s="4">
+        <v>15021719313</v>
+      </c>
+      <c r="L250" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M250" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N250" s="4">
+        <v>18920695555</v>
+      </c>
+    </row>
+    <row r="251" spans="1:14">
+      <c r="A251" s="72"/>
+      <c r="B251" s="55">
+        <v>43035</v>
+      </c>
+      <c r="C251" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D251" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E251" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F251" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="G251" s="4">
+        <v>76102677</v>
+      </c>
+      <c r="H251" s="57" t="s">
+        <v>513</v>
+      </c>
+      <c r="I251" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J251" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K251" s="4">
+        <v>15021719313</v>
+      </c>
+      <c r="L251" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M251" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N251" s="4">
+        <v>18305113551</v>
+      </c>
+    </row>
+    <row r="252" spans="1:14">
+      <c r="A252" s="72"/>
+      <c r="B252" s="55">
+        <v>43035</v>
+      </c>
+      <c r="C252" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D252" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E252" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F252" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="G252" s="4">
+        <v>76102700</v>
+      </c>
+      <c r="H252" s="57" t="s">
+        <v>515</v>
+      </c>
+      <c r="I252" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J252" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K252" s="4">
+        <v>15021719313</v>
+      </c>
+      <c r="L252" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M252" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N252" s="4">
+        <v>18012311211</v>
+      </c>
+    </row>
+    <row r="253" spans="1:14">
+      <c r="A253" s="72"/>
+      <c r="B253" s="55">
+        <v>43035</v>
+      </c>
+      <c r="C253" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D253" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E253" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F253" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="G253" s="4">
+        <v>76102969</v>
+      </c>
+      <c r="H253" s="57" t="s">
+        <v>517</v>
+      </c>
+      <c r="I253" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J253" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K253" s="4">
+        <v>15021719313</v>
+      </c>
+      <c r="L253" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M253" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N253" s="4">
+        <v>13821960489</v>
+      </c>
+    </row>
+    <row r="254" spans="1:14">
+      <c r="A254" s="72"/>
+      <c r="B254" s="55">
+        <v>43035</v>
+      </c>
+      <c r="C254" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D254" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E254" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F254" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="G254" s="4">
+        <v>76103005</v>
+      </c>
+      <c r="H254" s="57" t="s">
+        <v>518</v>
+      </c>
+      <c r="I254" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J254" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K254" s="4">
+        <v>15021719313</v>
+      </c>
+      <c r="L254" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M254" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N254" s="4">
+        <v>13855005561</v>
+      </c>
+    </row>
+    <row r="255" spans="1:14">
+      <c r="A255" s="72"/>
+      <c r="B255" s="55">
+        <v>43035</v>
+      </c>
+      <c r="C255" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D255" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E255" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F255" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="G255" s="4">
+        <v>76103111</v>
+      </c>
+      <c r="H255" s="57" t="s">
+        <v>520</v>
+      </c>
+      <c r="I255" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J255" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K255" s="4">
+        <v>15021719313</v>
+      </c>
+      <c r="L255" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M255" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N255" s="4">
+        <v>13871847911</v>
+      </c>
+    </row>
+    <row r="256" spans="1:14">
+      <c r="A256" s="72"/>
+      <c r="B256" s="55">
+        <v>43035</v>
+      </c>
+      <c r="C256" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D256" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E256" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F256" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="G256" s="4">
+        <v>76103523</v>
+      </c>
+      <c r="H256" s="57" t="s">
+        <v>522</v>
+      </c>
+      <c r="I256" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J256" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K256" s="4">
+        <v>15021719313</v>
+      </c>
+      <c r="L256" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M256" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N256" s="4">
+        <v>13855000866</v>
+      </c>
+    </row>
+    <row r="257" spans="1:14">
+      <c r="A257" s="72"/>
+      <c r="B257" s="55">
+        <v>43039</v>
+      </c>
+      <c r="C257" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D257" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E257" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F257" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="G257" s="4">
+        <v>76103577</v>
+      </c>
+      <c r="H257" s="57" t="s">
+        <v>523</v>
+      </c>
+      <c r="I257" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J257" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K257" s="4">
+        <v>15021719313</v>
+      </c>
+      <c r="L257" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M257" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N257" s="4">
+        <v>15238528959</v>
+      </c>
+    </row>
+    <row r="258" spans="1:14">
+      <c r="A258" s="72"/>
+      <c r="B258" s="55">
+        <v>43039</v>
+      </c>
+      <c r="C258" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D258" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E258" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F258" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="G258" s="4">
+        <v>76103578</v>
+      </c>
+      <c r="H258" s="57" t="s">
+        <v>525</v>
+      </c>
+      <c r="I258" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J258" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K258" s="4">
+        <v>15021719313</v>
+      </c>
+      <c r="L258" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M258" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N258" s="4">
+        <v>18253518111</v>
+      </c>
+    </row>
+    <row r="259" spans="1:14">
+      <c r="A259" s="72"/>
+      <c r="B259" s="55">
+        <v>43039</v>
+      </c>
+      <c r="C259" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D259" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E259" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F259" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="G259" s="4">
+        <v>76103593</v>
+      </c>
+      <c r="H259" s="57" t="s">
+        <v>531</v>
+      </c>
+      <c r="I259" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J259" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K259" s="4">
+        <v>15021719313</v>
+      </c>
+      <c r="L259" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M259" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N259" s="4">
+        <v>13955721087</v>
+      </c>
+    </row>
+    <row r="260" spans="1:14">
+      <c r="A260" s="72"/>
+      <c r="B260" s="55">
+        <v>43039</v>
+      </c>
+      <c r="C260" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D260" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E260" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F260" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="G260" s="4">
+        <v>76103859</v>
+      </c>
+      <c r="H260" s="57" t="s">
+        <v>533</v>
+      </c>
+      <c r="I260" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J260" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K260" s="4">
+        <v>15021719313</v>
+      </c>
+      <c r="L260" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M260" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N260" s="4">
+        <v>13519823578</v>
+      </c>
+    </row>
+    <row r="261" spans="1:14">
+      <c r="A261" s="72"/>
+      <c r="B261" s="55">
+        <v>43039</v>
+      </c>
+      <c r="C261" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D261" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E261" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F261" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="G261" s="4">
+        <v>76103860</v>
+      </c>
+      <c r="H261" s="57" t="s">
+        <v>535</v>
+      </c>
+      <c r="I261" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J261" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K261" s="4">
+        <v>15021719313</v>
+      </c>
+      <c r="L261" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M261" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N261" s="4">
+        <v>15689587788</v>
+      </c>
+    </row>
+    <row r="262" spans="1:14">
+      <c r="A262" s="72"/>
+      <c r="B262" s="55">
+        <v>43039</v>
+      </c>
+      <c r="C262" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D262" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E262" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F262" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="G262" s="4">
+        <v>76103861</v>
+      </c>
+      <c r="H262" s="57" t="s">
+        <v>537</v>
+      </c>
+      <c r="I262" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J262" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K262" s="4">
+        <v>15021719313</v>
+      </c>
+      <c r="L262" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M262" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N262" s="4">
+        <v>18115855156</v>
+      </c>
+    </row>
+    <row r="263" spans="1:14">
+      <c r="A263" s="72"/>
+      <c r="B263" s="55">
+        <v>43039</v>
+      </c>
+      <c r="C263" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D263" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E263" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F263" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="G263" s="4">
+        <v>76103862</v>
+      </c>
+      <c r="H263" s="57" t="s">
+        <v>539</v>
+      </c>
+      <c r="I263" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J263" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K263" s="4">
+        <v>15021719313</v>
+      </c>
+      <c r="L263" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M263" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N263" s="4">
+        <v>18952125233</v>
+      </c>
+    </row>
+    <row r="264" spans="1:14">
+      <c r="A264" s="72"/>
+      <c r="B264" s="55">
+        <v>43039</v>
+      </c>
+      <c r="C264" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D264" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E264" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F264" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="G264" s="4">
+        <v>76103890</v>
+      </c>
+      <c r="H264" s="57" t="s">
+        <v>541</v>
+      </c>
+      <c r="I264" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J264" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K264" s="4">
+        <v>15021719313</v>
+      </c>
+      <c r="L264" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M264" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N264" s="4">
+        <v>18915795364</v>
+      </c>
+    </row>
+    <row r="265" spans="1:14">
+      <c r="A265" s="72"/>
+      <c r="B265" s="55">
+        <v>43039</v>
+      </c>
+      <c r="C265" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D265" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E265" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F265" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="G265" s="4">
+        <v>76103936</v>
+      </c>
+      <c r="H265" s="57" t="s">
+        <v>543</v>
+      </c>
+      <c r="I265" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J265" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K265" s="4">
+        <v>15021719313</v>
+      </c>
+      <c r="L265" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M265" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N265" s="4">
+        <v>13612042177</v>
+      </c>
+    </row>
+    <row r="266" spans="1:14">
+      <c r="A266" s="72"/>
+      <c r="B266" s="55">
+        <v>43039</v>
+      </c>
+      <c r="C266" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D266" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E266" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F266" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="G266" s="4">
+        <v>76105070</v>
+      </c>
+      <c r="H266" s="57" t="s">
+        <v>544</v>
+      </c>
+      <c r="I266" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J266" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K266" s="4">
+        <v>15021719313</v>
+      </c>
+      <c r="L266" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M266" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N266" s="4">
+        <v>15385918881</v>
+      </c>
+    </row>
+    <row r="267" spans="1:14">
+      <c r="A267" s="72"/>
+      <c r="B267" s="55">
+        <v>43039</v>
+      </c>
+      <c r="C267" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D267" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E267" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F267" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="G267" s="4">
+        <v>76105072</v>
+      </c>
+      <c r="H267" s="57" t="s">
+        <v>546</v>
+      </c>
+      <c r="I267" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J267" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K267" s="4">
+        <v>15021719313</v>
+      </c>
+      <c r="L267" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M267" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N267" s="4">
+        <v>15385918881</v>
+      </c>
+    </row>
+    <row r="268" spans="1:14">
+      <c r="A268" s="72"/>
+      <c r="B268" s="55">
+        <v>43039</v>
+      </c>
+      <c r="C268" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D268" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E268" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F268" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="G268" s="4">
+        <v>76105169</v>
+      </c>
+      <c r="H268" s="57" t="s">
+        <v>557</v>
+      </c>
+      <c r="I268" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J268" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K268" s="4">
+        <v>15021719313</v>
+      </c>
+      <c r="L268" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M268" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N268" s="4">
+        <v>18652577678</v>
+      </c>
+    </row>
+    <row r="269" spans="1:14">
+      <c r="A269" s="72"/>
+      <c r="B269" s="55">
+        <v>43039</v>
+      </c>
+      <c r="C269" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D269" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E269" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F269" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="G269" s="4">
+        <v>76105269</v>
+      </c>
+      <c r="H269" s="57" t="s">
+        <v>555</v>
+      </c>
+      <c r="I269" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J269" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K269" s="4">
+        <v>15021719313</v>
+      </c>
+      <c r="L269" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M269" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N269" s="4">
+        <v>13920297672</v>
+      </c>
+    </row>
+    <row r="270" spans="1:14">
+      <c r="A270" s="72"/>
+      <c r="B270" s="55">
+        <v>43039</v>
+      </c>
+      <c r="C270" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D270" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E270" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F270" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="G270" s="4">
+        <v>76105270</v>
+      </c>
+      <c r="H270" s="57" t="s">
+        <v>530</v>
+      </c>
+      <c r="I270" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J270" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K270" s="4">
+        <v>15021719313</v>
+      </c>
+      <c r="L270" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M270" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N270" s="4">
+        <v>18019800578</v>
+      </c>
+    </row>
+    <row r="271" spans="1:14">
+      <c r="A271" s="72"/>
+      <c r="B271" s="55">
+        <v>43039</v>
+      </c>
+      <c r="C271" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D271" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E271" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F271" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="G271" s="4">
+        <v>76105272</v>
+      </c>
+      <c r="H271" s="57" t="s">
+        <v>554</v>
+      </c>
+      <c r="I271" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J271" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K271" s="4">
+        <v>15021719313</v>
+      </c>
+      <c r="L271" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M271" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N271" s="4">
+        <v>13855005561</v>
+      </c>
+    </row>
+    <row r="272" spans="1:14">
+      <c r="A272" s="72"/>
+      <c r="B272" s="55">
+        <v>43039</v>
+      </c>
+      <c r="C272" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D272" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E272" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F272" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="G272" s="4">
+        <v>76105288</v>
+      </c>
+      <c r="H272" s="57" t="s">
+        <v>552</v>
+      </c>
+      <c r="I272" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J272" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K272" s="4">
+        <v>15021719313</v>
+      </c>
+      <c r="L272" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M272" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N272" s="4">
+        <v>18808682286</v>
+      </c>
+    </row>
+    <row r="273" spans="1:14">
+      <c r="A273" s="72"/>
+      <c r="B273" s="55">
+        <v>43039</v>
+      </c>
+      <c r="C273" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D273" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E273" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F273" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="G273" s="4">
+        <v>76105292</v>
+      </c>
+      <c r="H273" s="57" t="s">
+        <v>550</v>
+      </c>
+      <c r="I273" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J273" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K273" s="4">
+        <v>15021719313</v>
+      </c>
+      <c r="L273" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M273" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N273" s="4">
+        <v>13775252685</v>
+      </c>
+    </row>
+    <row r="274" spans="1:14">
+      <c r="A274" s="72"/>
+      <c r="B274" s="55">
+        <v>43039</v>
+      </c>
+      <c r="C274" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D274" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E274" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F274" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="G274" s="4">
+        <v>76105321</v>
+      </c>
+      <c r="H274" s="57" t="s">
+        <v>548</v>
+      </c>
+      <c r="I274" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J274" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K274" s="4">
+        <v>15021719313</v>
+      </c>
+      <c r="L274" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M274" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N274" s="4">
+        <v>15327116040</v>
+      </c>
+    </row>
+    <row r="275" spans="1:14">
+      <c r="A275" s="75"/>
+      <c r="B275" s="55">
+        <v>43039</v>
+      </c>
+      <c r="C275" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D275" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E275" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F275" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="G275" s="4">
+        <v>76105322</v>
+      </c>
+      <c r="H275" s="57" t="s">
+        <v>547</v>
+      </c>
+      <c r="I275" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J275" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K275" s="4">
+        <v>15021719313</v>
+      </c>
+      <c r="L275" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M275" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N275" s="4">
+        <v>13855005561</v>
+      </c>
+    </row>
+    <row r="276" spans="1:14">
       <c r="A276" s="8"/>
     </row>
-    <row r="277" spans="1:1">
+    <row r="277" spans="1:14">
       <c r="A277" s="8"/>
     </row>
-    <row r="278" spans="1:1">
+    <row r="278" spans="1:14">
       <c r="A278" s="8"/>
     </row>
-    <row r="279" spans="1:1">
+    <row r="279" spans="1:14">
       <c r="A279" s="8"/>
     </row>
-    <row r="280" spans="1:1">
+    <row r="280" spans="1:14">
       <c r="A280" s="8"/>
     </row>
-    <row r="281" spans="1:1">
+    <row r="281" spans="1:14">
       <c r="A281" s="8"/>
     </row>
-    <row r="282" spans="1:1">
+    <row r="282" spans="1:14">
       <c r="A282" s="8"/>
     </row>
-    <row r="283" spans="1:1">
+    <row r="283" spans="1:14">
       <c r="A283" s="8"/>
     </row>
-    <row r="284" spans="1:1">
+    <row r="284" spans="1:14">
       <c r="A284" s="8"/>
     </row>
-    <row r="285" spans="1:1">
+    <row r="285" spans="1:14">
       <c r="A285" s="8"/>
     </row>
-    <row r="286" spans="1:1">
+    <row r="286" spans="1:14">
       <c r="A286" s="8"/>
     </row>
-    <row r="287" spans="1:1">
+    <row r="287" spans="1:14">
       <c r="A287" s="8"/>
     </row>
-    <row r="288" spans="1:1">
+    <row r="288" spans="1:14">
       <c r="A288" s="8"/>
     </row>
     <row r="289" spans="1:1">
@@ -18324,8 +20341,12 @@
     <row r="605" spans="1:1">
       <c r="A605" s="8"/>
     </row>
+    <row r="606" spans="1:1">
+      <c r="A606" s="8"/>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="A240:A275"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A46:A79"/>
     <mergeCell ref="A80:A93"/>
